--- a/data/tehilim-data/14.xlsx
+++ b/data/tehilim-data/14.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
     <t>original</t>
   </si>
@@ -52,10 +52,16 @@
     <t>в сердце своем</t>
   </si>
   <si>
-    <t>אֵין אֱלֹהִים</t>
-  </si>
-  <si>
-    <t>"Нет Бога"</t>
+    <t xml:space="preserve">אֵין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Нет </t>
+  </si>
+  <si>
+    <t>אֱלֹהִים</t>
+  </si>
+  <si>
+    <t>Бога"</t>
   </si>
   <si>
     <t>הִשְׁחִיתוּ</t>
@@ -70,10 +76,16 @@
     <t>Сделали мерзкие дела</t>
   </si>
   <si>
-    <t>אֵין עֹשֵׂה-טּוֹב</t>
-  </si>
-  <si>
-    <t>Нет делающего добро</t>
+    <t>אֵין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет </t>
+  </si>
+  <si>
+    <t>עֹשֵׂה-טּוֹב</t>
+  </si>
+  <si>
+    <t>делающего добро</t>
   </si>
   <si>
     <t>ב</t>
@@ -97,10 +109,16 @@
     <t>смотрит</t>
   </si>
   <si>
-    <t>עַל-בְּנֵי-אָדָם</t>
-  </si>
-  <si>
-    <t>на сынов человеческих</t>
+    <t>עַל-בְּנֵי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на сынов </t>
+  </si>
+  <si>
+    <t>אָדָם</t>
+  </si>
+  <si>
+    <t>человеческих</t>
   </si>
   <si>
     <t>לִרְאוֹת</t>
@@ -109,10 +127,16 @@
     <t>чтобы видеть</t>
   </si>
   <si>
-    <t>הֲיֵשׁ-מַשְׂכִּיל</t>
-  </si>
-  <si>
-    <t>есть ли разумеющий</t>
+    <t>הֲיֵשׁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть ли </t>
+  </si>
+  <si>
+    <t>מַשְׂכִּיל</t>
+  </si>
+  <si>
+    <t>разумеющий</t>
   </si>
   <si>
     <t>דֹּרֵשׁ</t>
@@ -130,19 +154,37 @@
     <t>ג</t>
   </si>
   <si>
-    <t>הַכֹּל סָר</t>
-  </si>
-  <si>
-    <t>Все отклонились</t>
-  </si>
-  <si>
-    <t>יַחְדָּו נֶאֱלָחוּ</t>
-  </si>
-  <si>
-    <t>вместе развратились</t>
-  </si>
-  <si>
-    <t>אֵין גַּם-אֶחָד</t>
+    <t>הַכֹּל</t>
+  </si>
+  <si>
+    <t>Все</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> סָר</t>
+  </si>
+  <si>
+    <t>отклонились</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יַחְדָּו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">вместе </t>
+  </si>
+  <si>
+    <t>נֶאֱלָחוּ</t>
+  </si>
+  <si>
+    <t>развратились</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> עֹשֵׂה-טּוֹב</t>
+  </si>
+  <si>
+    <t>גַּם-אֶחָד</t>
   </si>
   <si>
     <t>Нет ни одного</t>
@@ -151,46 +193,82 @@
     <t>ד</t>
   </si>
   <si>
-    <t>הֲלֹא יָדְעוּ</t>
-  </si>
-  <si>
-    <t>Разве не знают</t>
-  </si>
-  <si>
-    <t>כָּל-פֹּעֲלֵי-אָוֶן</t>
-  </si>
-  <si>
-    <t>все делающие беззаконие</t>
-  </si>
-  <si>
-    <t>אֹכְלֵי עַמִּי</t>
-  </si>
-  <si>
-    <t>пожирающие народ мой</t>
-  </si>
-  <si>
-    <t>אָכְלוּ לֶחֶם</t>
-  </si>
-  <si>
-    <t>едят хлеб</t>
+    <t>הֲלֹא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разве </t>
+  </si>
+  <si>
+    <t>יָדְעוּ</t>
+  </si>
+  <si>
+    <t>не знают</t>
+  </si>
+  <si>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>פֹּעֲלֵי-אָוֶן</t>
+  </si>
+  <si>
+    <t>делающие беззаконие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אֹכְלֵי </t>
+  </si>
+  <si>
+    <t>пожирающие</t>
+  </si>
+  <si>
+    <t>עַמִּי</t>
+  </si>
+  <si>
+    <t>народ мой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אָכְלוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">едят </t>
+  </si>
+  <si>
+    <t>לֶחֶם</t>
+  </si>
+  <si>
+    <t>хлеб</t>
   </si>
   <si>
     <t>Господа</t>
   </si>
   <si>
-    <t>לֹא קָרָאוּ</t>
-  </si>
-  <si>
-    <t>не взывали</t>
+    <t xml:space="preserve">לֹא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">не </t>
+  </si>
+  <si>
+    <t>קָרָאוּ</t>
+  </si>
+  <si>
+    <t>взывали</t>
   </si>
   <si>
     <t>ה</t>
   </si>
   <si>
-    <t>שָׁם פָּחֲדוּ</t>
-  </si>
-  <si>
-    <t>Там устрашились</t>
+    <t>שָׁם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Там </t>
+  </si>
+  <si>
+    <t>פָּחֲדוּ</t>
+  </si>
+  <si>
+    <t>устрашились</t>
   </si>
   <si>
     <t>פָחַד</t>
@@ -205,10 +283,16 @@
     <t>ибо Бог</t>
   </si>
   <si>
-    <t>בְּדוֹר צַדִּיק</t>
-  </si>
-  <si>
-    <t>с родом праведным</t>
+    <t xml:space="preserve">בְּדוֹר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">с родом </t>
+  </si>
+  <si>
+    <t>צַדִּיק</t>
+  </si>
+  <si>
+    <t>праведным</t>
   </si>
   <si>
     <t>ו</t>
@@ -226,10 +310,10 @@
     <t>постыдили</t>
   </si>
   <si>
-    <t>כִּי יְהוָה</t>
-  </si>
-  <si>
-    <t>потому что Господь</t>
+    <t xml:space="preserve">כִּי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">потому что </t>
   </si>
   <si>
     <t>מַחְסֵהוּ</t>
@@ -253,10 +337,16 @@
     <t>с Сиона</t>
   </si>
   <si>
-    <t>יְשׁוּעַת יִשְׂרָאֵל</t>
-  </si>
-  <si>
-    <t>спасение Израилю</t>
+    <t xml:space="preserve">יְשׁוּעַת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">спасение </t>
+  </si>
+  <si>
+    <t>יִשְׂרָאֵל</t>
+  </si>
+  <si>
+    <t>Израилю</t>
   </si>
   <si>
     <t>בְּשׁוּב</t>
@@ -265,10 +355,16 @@
     <t>когда возвратит</t>
   </si>
   <si>
-    <t>שְׁבוּת עַמּוֹ</t>
-  </si>
-  <si>
-    <t>пленение народа Своего</t>
+    <t xml:space="preserve">שְׁבוּת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">пленение </t>
+  </si>
+  <si>
+    <t>עַמּוֹ</t>
+  </si>
+  <si>
+    <t>народа Своего</t>
   </si>
   <si>
     <t>יָגֵל</t>
@@ -287,9 +383,6 @@
   </si>
   <si>
     <t>будет веселиться</t>
-  </si>
-  <si>
-    <t>יִשְׂרָאֵל</t>
   </si>
   <si>
     <t>Израиль</t>
@@ -299,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -311,13 +404,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -326,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,6 +441,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -623,10 +732,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -650,24 +759,24 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
-        <v>2.0</v>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +812,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -722,112 +831,112 @@
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3">
-        <v>3.0</v>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4.0</v>
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>53</v>
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="3">
-        <v>5.0</v>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -839,18 +948,18 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -858,72 +967,72 @@
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="3">
-        <v>6.0</v>
+      <c r="B38" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="4">
-        <v>7.0</v>
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -935,51 +1044,195 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>23</v>
+      <c r="A48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>91</v>
+      <c r="A52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="6">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
